--- a/Documentation/TimeSheets/week2/Sean_timesheet_wk2.xlsx
+++ b/Documentation/TimeSheets/week2/Sean_timesheet_wk2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Sean</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">total time (hrs) </t>
+  </si>
+  <si>
+    <t>Total time</t>
   </si>
 </sst>
 </file>
@@ -136,12 +139,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,11 +587,11 @@
         <v>1200</v>
       </c>
       <c r="F10" s="2">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -637,11 +641,11 @@
         <v>1400</v>
       </c>
       <c r="F13" s="2">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -673,11 +677,19 @@
         <v>1700</v>
       </c>
       <c r="F15" s="2">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5">
+        <f>SUM(G7:G15)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/TimeSheets/week2/Sean_timesheet_wk2.xlsx
+++ b/Documentation/TimeSheets/week2/Sean_timesheet_wk2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,11 +459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3">
-        <v>42922</v>
+        <v>42953</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
         <v>1300</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" ref="G7:G15" si="0">(F7-E7)/100</f>
+        <f t="shared" ref="G7:G14" si="0">(F7-E7)/100</f>
         <v>1</v>
       </c>
     </row>
